--- a/biology/Botanique/Magnolia_amazonica/Magnolia_amazonica.xlsx
+++ b/biology/Botanique/Magnolia_amazonica/Magnolia_amazonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia amazonica est une espèce d'arbres de la famille des Magnoliaceae vivant en Amérique du Sud. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Équateur, au Pérou, en Bolivie et au Brésil. Elle pousse dans la forêt tropicale humide de basse altitude. C'est la seule espèce de la famille des Magnoliacées à vivre dans le bassin amazonien qui est relativement chaud et humide[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Équateur, au Pérou, en Bolivie et au Brésil. Elle pousse dans la forêt tropicale humide de basse altitude. C'est la seule espèce de la famille des Magnoliacées à vivre dans le bassin amazonien qui est relativement chaud et humide.
 </t>
         </is>
       </c>
